--- a/csv/xls/travelsky_198IH_except.xlsx
+++ b/csv/xls/travelsky_198IH_except.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>business_class</t>
+          <t>business_short</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已登机旅客页面加载</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>已/未登机查询入口</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>旅客检索清空按钮</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>用户注销按钮</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>登录按钮</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>关闭当前页面</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客检索页面加载</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2816,7 +2816,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4116,7 +4116,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4416,7 +4416,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4616,7 +4616,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4691,7 +4691,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4816,7 +4816,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5076,7 +5076,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -5091,7 +5091,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5116,7 +5116,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -5291,7 +5291,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5316,7 +5316,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>列表切换旅客</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6176,7 +6176,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6226,7 +6226,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6291,7 +6291,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6316,7 +6316,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6416,7 +6416,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6466,7 +6466,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>旅客查询页签检索按钮</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情按钮</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>旅客详情入口</t>
         </is>
       </c>
     </row>
